--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/10/seed5/result_data_KNN.xlsx
@@ -482,10 +482,10 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>5.478</v>
+        <v>5.513</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.038</v>
+        <v>-12.032</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -573,7 +573,7 @@
         <v>-14.64</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.358000000000001</v>
+        <v>-8.532</v>
       </c>
       <c r="E8" t="n">
         <v>16.54</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.196</v>
+        <v>-7.457000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.54</v>
+        <v>-21.629</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.096</v>
+        <v>6.114</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.94</v>
+        <v>-7.678</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.953999999999999</v>
+        <v>-8.175000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.878</v>
+        <v>6.193000000000001</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.874</v>
+        <v>-12.646</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.715999999999999</v>
+        <v>6.276999999999999</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.336</v>
+        <v>-21.406</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.190000000000001</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.988</v>
+        <v>-21.044</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.684000000000001</v>
+        <v>-8.169</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>7.866</v>
+        <v>8.260000000000002</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.93</v>
+        <v>-20.363</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.514</v>
+        <v>-12.289</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.274</v>
+        <v>5.678000000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.208</v>
+        <v>-21.515</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.634</v>
+        <v>-21.9</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.886</v>
+        <v>-21.921</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>6.194000000000001</v>
+        <v>6.090000000000001</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.608</v>
+        <v>-12.609</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1525,7 +1525,7 @@
         <v>-10.62</v>
       </c>
       <c r="D64" t="n">
-        <v>-8.084</v>
+        <v>-7.654999999999999</v>
       </c>
       <c r="E64" t="n">
         <v>16.88</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.758</v>
+        <v>-21.588</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.794</v>
+        <v>-21.721</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.818</v>
+        <v>-21.55</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.046</v>
+        <v>-13.172</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1947,10 +1947,10 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.128</v>
+        <v>-11.403</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.15</v>
+        <v>-6.747999999999999</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.454</v>
+        <v>-21.747</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.112</v>
+        <v>-11.21</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.564</v>
+        <v>-11.539</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.18</v>
+        <v>-20.559</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.196</v>
+        <v>6.187</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>6.847999999999999</v>
+        <v>7.334999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.042</v>
+        <v>-12.808</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
